--- a/doc/Document/15-06-2017 - Dictionnaire de données - AutoEvaluation.xlsx
+++ b/doc/Document/15-06-2017 - Dictionnaire de données - AutoEvaluation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>Nom</t>
   </si>
@@ -42,15 +42,6 @@
     <t>Competence</t>
   </si>
   <si>
-    <t>nom de module</t>
-  </si>
-  <si>
-    <t>identifiant de module</t>
-  </si>
-  <si>
-    <t>nom de competence</t>
-  </si>
-  <si>
     <t>identifiant module</t>
   </si>
   <si>
@@ -72,33 +63,15 @@
     <t>Stagiaire</t>
   </si>
   <si>
-    <t>nom du stagiaire</t>
-  </si>
-  <si>
     <t>nom stagiaire</t>
   </si>
   <si>
     <t>prenom stagiaire</t>
   </si>
   <si>
-    <t>prenom du stagiaire</t>
-  </si>
-  <si>
-    <t>niveau</t>
-  </si>
-  <si>
     <t>date d'auto-evaluation</t>
   </si>
   <si>
-    <t>date de l'auto-evaluation</t>
-  </si>
-  <si>
-    <t>identifiant de sequence</t>
-  </si>
-  <si>
-    <t>nom de sequence</t>
-  </si>
-  <si>
     <t>NA/AC/A</t>
   </si>
   <si>
@@ -108,9 +81,6 @@
     <t>NiveauAcquisition</t>
   </si>
   <si>
-    <t xml:space="preserve">niveau d'acquisition </t>
-  </si>
-  <si>
     <t>Sequence</t>
   </si>
   <si>
@@ -129,9 +99,6 @@
     <t>Exemple C1 C2 C3…</t>
   </si>
   <si>
-    <t>auto incrementé</t>
-  </si>
-  <si>
     <t>identifiant niveau acquisition</t>
   </si>
   <si>
@@ -141,9 +108,6 @@
     <t>na_id</t>
   </si>
   <si>
-    <t>na_niv</t>
-  </si>
-  <si>
     <t>ae_date</t>
   </si>
   <si>
@@ -162,9 +126,6 @@
     <t>nom long module</t>
   </si>
   <si>
-    <t>nom abrégè du module</t>
-  </si>
-  <si>
     <t>module</t>
   </si>
   <si>
@@ -186,9 +147,6 @@
     <t>nom long sequence</t>
   </si>
   <si>
-    <t>nom abrégè de sequence</t>
-  </si>
-  <si>
     <t>comp_id</t>
   </si>
   <si>
@@ -216,15 +174,9 @@
     <t>mot de passe stagiaire</t>
   </si>
   <si>
-    <t>mot de passe du stagiaire</t>
-  </si>
-  <si>
     <t>numero telephone administration</t>
   </si>
   <si>
-    <t>Déscription</t>
-  </si>
-  <si>
     <t>stag_num_tel_forma</t>
   </si>
   <si>
@@ -258,7 +210,10 @@
     <t>humeur</t>
   </si>
   <si>
-    <t>Très bonne humeur / Bonne humeur / Neutre / Maussade / Au fond du trou</t>
+    <t>na_libelle</t>
+  </si>
+  <si>
+    <t>libelle niveau acquisition</t>
   </si>
 </sst>
 </file>
@@ -280,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,13 +244,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,11 +323,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,500 +653,444 @@
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>200</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5">
+        <v>200</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>200</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>60</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
         <v>200</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="3">
-        <v>200</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
         <v>50</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2">
-        <v>200</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2">
-        <v>200</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2">
-        <v>200</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2">
-        <v>200</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2">
-        <v>8</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <v>50</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2">
-        <v>30</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2">
-        <v>60</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
         <v>20</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="2">
-        <v>60</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="2">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="2">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="2">
-        <v>200</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2">
-        <v>50</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="2">
-        <v>50</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="2">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="F23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
